--- a/test/excel/demo1.xlsx
+++ b/test/excel/demo1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tree/work/99_tree/03_github/soc-excel2markdown/test/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tree/work/99_tree/03_github/soc-excel-convert/test/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="53360" yWindow="6440" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="53360" yWindow="6440" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
     <sheet name="test2" sheetId="2" r:id="rId2"/>
+    <sheet name="测试" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>row1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +189,93 @@
   </si>
   <si>
     <t>c66</t>
+  </si>
+  <si>
+    <t>含义</t>
+    <rPh sb="0" eb="1">
+      <t>han'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <rPh sb="0" eb="1">
+      <t>fu'ze'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="1">
+      <t>ming'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注人</t>
+    <rPh sb="0" eb="1">
+      <t>guan'zhu'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责模块的人</t>
+    <rPh sb="0" eb="1">
+      <t>fu'ze</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'kuai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与的成员</t>
+    <rPh sb="0" eb="1">
+      <t>can'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注模块的人</t>
+    <rPh sb="0" eb="1">
+      <t>guan'zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'kuai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="1">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -231,8 +319,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -513,25 +610,25 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
@@ -686,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F7:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -854,4 +951,67 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/excel/demo1.xlsx
+++ b/test/excel/demo1.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tree/work/99_tree/03_github/soc-excel-convert/test/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_product\05_soc-excel-convert\01_src\soc-excel-convert\test\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="53360" yWindow="6440" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="53355" yWindow="6435" windowWidth="28800" windowHeight="17595" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
     <sheet name="test2" sheetId="2" r:id="rId2"/>
     <sheet name="测试" sheetId="3" r:id="rId3"/>
+    <sheet name="测试2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>row1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +275,145 @@
     <t>数量</t>
     <rPh sb="0" eb="1">
       <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>负</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>fu'ze</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'kuai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>参与的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>can'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的人</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>guan'zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'kuai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,8 +421,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -295,6 +435,38 @@
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -339,6 +511,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -613,9 +788,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -635,7 +810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -658,7 +833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -681,7 +856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -704,7 +879,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -727,7 +902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -750,7 +925,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -787,9 +962,9 @@
       <selection activeCell="F7" sqref="F7:L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="7" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="6:12">
       <c r="G7" t="s">
         <v>4</v>
       </c>
@@ -809,7 +984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="6:12">
       <c r="F8" t="s">
         <v>0</v>
       </c>
@@ -832,7 +1007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="6:12">
       <c r="F9" t="s">
         <v>1</v>
       </c>
@@ -855,7 +1030,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="6:12">
       <c r="F10" t="s">
         <v>2</v>
       </c>
@@ -878,7 +1053,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="6:12">
       <c r="F11" t="s">
         <v>3</v>
       </c>
@@ -901,7 +1076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="6:12">
       <c r="F12" t="s">
         <v>10</v>
       </c>
@@ -924,7 +1099,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="6:12">
       <c r="F13" t="s">
         <v>11</v>
       </c>
@@ -957,16 +1132,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:5">
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -977,7 +1152,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:5">
       <c r="C7" t="s">
         <v>49</v>
       </c>
@@ -988,7 +1163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:5">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -999,7 +1174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:5">
       <c r="C9" t="s">
         <v>52</v>
       </c>
@@ -1014,4 +1189,70 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test/excel/demo1.xlsx
+++ b/test/excel/demo1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
   <si>
     <t>row1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,142 +279,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>负</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>责</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模块</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>人</t>
-    </r>
+    <t>带小数点数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
     <rPh sb="0" eb="1">
-      <t>fu'ze</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mo'kuai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>d</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>参与的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员</t>
-    </r>
+      <t>ming'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒发冲冠，凭栏处、潇潇雨歇。</t>
     <rPh sb="0" eb="1">
-      <t>can'yu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>d</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>cheng'yuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>注模块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的人</t>
-    </r>
+      <t>fu'ze'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抬望眼，仰天长啸，壮怀激烈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十功名尘与土，八千里路云和月。</t>
     <rPh sb="0" eb="1">
-      <t>guan'zhu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mo'kuai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>d</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ren</t>
-    </rPh>
+      <t>guan'zhu'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫等闲，白了少年头，空悲切！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从这里点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从这里打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +368,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -441,32 +390,9 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -488,10 +414,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -502,9 +429,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1193,66 +1124,177 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:E7"/>
+  <dimension ref="B4:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5">
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
       <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="3:5">
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="3:5">
+      <c r="H5">
+        <v>19001.123456788999</v>
+      </c>
+      <c r="I5" s="4">
+        <v>43665.508460648147</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="3:5">
+      <c r="H6">
+        <v>1902200001.12345</v>
+      </c>
+      <c r="I6" s="5">
+        <v>43666</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7">
         <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1931231001.12345</v>
+      </c>
+      <c r="I7" s="4">
+        <v>43667</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>19001.123456788999</v>
+      </c>
+      <c r="I8" s="4">
+        <v>43668</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J6" r:id="rId1"/>
+    <hyperlink ref="J8" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/test/excel/demo1.xlsx
+++ b/test/excel/demo1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="53355" yWindow="6435" windowWidth="28800" windowHeight="17595" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="53355" yWindow="6435" windowWidth="28800" windowHeight="17595" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="测试" sheetId="3" r:id="rId3"/>
     <sheet name="测试2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
   <si>
     <t>row1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +361,58 @@
   </si>
   <si>
     <t>超链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短参数名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长参数名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否必传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--sheets</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +421,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -418,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -430,8 +482,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -713,40 +766,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -757,19 +808,13 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -780,108 +825,36 @@
       <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1126,7 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>

--- a/test/excel/demo1.xlsx
+++ b/test/excel/demo1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_product\05_soc-excel-convert\01_src\soc-excel-convert\test\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tree/work/99_tree/03_github/soc-excel-convert/test/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="53355" yWindow="6435" windowWidth="28800" windowHeight="17595" tabRatio="500"/>
+    <workbookView xWindow="4800" yWindow="2280" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="测试" sheetId="3" r:id="rId3"/>
     <sheet name="测试2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
   <si>
     <t>row1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,17 +413,61 @@
   </si>
   <si>
     <t>--sheets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./{fileName}/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定需要转换的excel文件路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定转换格式, 可选参数: md(markdown)和json. 不传默认为md. 目前仅支持md;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出目标路径. 不传默认当前目录. 如果目录不存在则会自动创建;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定输出哪些sheet表格, 不传输出所有;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -769,30 +813,34 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>81</v>
       </c>
@@ -800,16 +848,13 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>84</v>
       </c>
@@ -817,24 +862,33 @@
         <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>85</v>
       </c>
@@ -842,13 +896,13 @@
         <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -866,9 +920,9 @@
       <selection activeCell="F7" sqref="F7:L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" spans="6:12">
+    <row r="7" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>4</v>
       </c>
@@ -888,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="6:12">
+    <row r="8" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
         <v>0</v>
       </c>
@@ -911,7 +965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="6:12">
+    <row r="9" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
         <v>1</v>
       </c>
@@ -934,7 +988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="6:12">
+    <row r="10" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
         <v>2</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="6:12">
+    <row r="11" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
         <v>3</v>
       </c>
@@ -980,7 +1034,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="6:12">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +1057,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="6:12">
+    <row r="13" spans="6:12" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
         <v>11</v>
       </c>
@@ -1040,12 +1094,12 @@
       <selection activeCell="C6" sqref="C6:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:5">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -1056,7 +1110,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>49</v>
       </c>
@@ -1067,7 +1121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>50</v>
       </c>
@@ -1078,7 +1132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:5">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>52</v>
       </c>
@@ -1103,20 +1157,20 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>62</v>
       </c>
@@ -1145,7 +1199,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>63</v>
       </c>
@@ -1174,7 +1228,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>64</v>
       </c>
@@ -1203,7 +1257,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -1232,7 +1286,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>66</v>
       </c>

--- a/test/excel/demo1.xlsx
+++ b/test/excel/demo1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2280" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="51200" windowHeight="27240" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
   <si>
     <t>row1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,115 +348,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短参数名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长参数名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否必传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--sheets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./{fileName}/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定需要转换的excel文件路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定输出哪些sheet表格, 不传输出所有;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出目标路径. 不传默认当前目录. 
+如果目录不存在则会自动创建;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定转换格式, 可选参数: md(markdown)和json. 
+不传默认为md. 目前仅支持md;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从这里打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换行</t>
+    <rPh sb="0" eb="1">
+      <t>huan'hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊字符</t>
+    <rPh sb="0" eb="1">
+      <t>te'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>从这里点击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从这里打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短参数名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长参数名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否必传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--excel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--sheets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>md</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./{fileName}/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>''</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定需要转换的excel文件路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定转换格式, 可选参数: md(markdown)和json. 不传默认为md. 目前仅支持md;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出目标路径. 不传默认当前目录. 如果目录不存在则会自动创建;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定输出哪些sheet表格, 不传输出所有;</t>
+    <t>从这里
+换行</t>
+    <rPh sb="4" eb="5">
+      <t>huan'hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里换
+行</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huan'hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">这里换行
+</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huan'hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+这里换行</t>
+    <rPh sb="1" eb="2">
+      <t>zhe'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huan'hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊&gt;字符</t>
+    <rPh sb="0" eb="1">
+      <t>te'shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊|字符</t>
+    <rPh sb="0" eb="1">
+      <t>te'shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊&lt;字符</t>
+    <rPh sb="0" eb="1">
+      <t>te'shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊&amp;字符</t>
+    <rPh sb="0" eb="1">
+      <t>te'shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'fu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -529,6 +629,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -812,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -824,85 +927,85 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>98</v>
+      <c r="E5" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1151,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J8"/>
+  <dimension ref="B4:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1170,7 +1273,7 @@
     <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>62</v>
       </c>
@@ -1196,10 +1299,16 @@
         <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="K4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>63</v>
       </c>
@@ -1225,10 +1334,16 @@
         <v>43665.508460648147</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>64</v>
       </c>
@@ -1254,10 +1369,16 @@
         <v>43666</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -1283,10 +1404,16 @@
         <v>43667</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -1312,7 +1439,13 @@
         <v>43668</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
